--- a/medicine/Enfance/Vincent_Lévêque/Vincent_Lévêque.xlsx
+++ b/medicine/Enfance/Vincent_Lévêque/Vincent_Lévêque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vincent_L%C3%A9v%C3%AAque</t>
+          <t>Vincent_Lévêque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Lévêque est un illustrateur jeunesse, de presse et auteur de bande dessinée français, né le 21 avril 1974 à Toulon, résidant à Lille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vincent_L%C3%A9v%C3%AAque</t>
+          <t>Vincent_Lévêque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Lévêque a commencé à dessiner en autodidacte. Étudiant en histoire à Poitiers, il a participé, souvent comme rédacteur en chef, à de nombreux magazines universitaires qu'il illustrait, prenant ainsi contact avec d'autres dessinateurs locaux, et se faisant la main. Il a lancé le fanzine Fracasse, puis a participé au fanzine SKERMU.
 Il tient un site internet à jour dès 2002, mais ce n'est qu'en 2006 qu'il crée son blog pour faire connaître son travail, présentant des notes plus ou moins autobiographiques et des dessins oniriques. De 2001 à 2010, il dessine chaque semaine un dessin d'actualité pour les journaux locaux La Concorde et Le Nouvelliste. Il a participé à divers magazines jeunesse dont Tchô !, J'apprends à lire ou Mon premier journal de Mickey, et depuis 2020, il dessine pour Fluide glacial.  
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vincent_L%C3%A9v%C3%AAque</t>
+          <t>Vincent_Lévêque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-2008 : Hector (Le Textuaire)
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2008 : Hector (Le Textuaire)
 2010 : Ma Life (Éditions Paquet)
-2021 : Bretonneries, tome 1  (scénario de monsieur le chien) (Fluide Glacial)
-Albums collectifs
-2008 : Revue Stupre, première revue érotique littéraire et graphique
+2021 : Bretonneries, tome 1  (scénario de monsieur le chien) (Fluide Glacial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Lévêque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_L%C3%A9v%C3%AAque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2008 : Revue Stupre, première revue érotique littéraire et graphique
 2008 : Café salé artbook 01 (Ankama Éditions )
 2008 : Café salé artbook 02 (Ankama Éditions )
 2009 : Café salé artbook 03 (Ankama Éditions )
